--- a/用詞對照表.xlsx
+++ b/用詞對照表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>輸入分析資料檔案路徑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,81 +42,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查無所輸入檔案，請重新輸入</t>
+  </si>
+  <si>
+    <t>分析資料檔案目標工作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入目的工作表序位，例如:第一張工作表請填1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入正整數！</t>
+  </si>
+  <si>
+    <t>部件重量欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入總和欄位，如果是A欄填寫A:</t>
+  </si>
+  <si>
+    <t>化學文摘號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入存放元素欄位，如果是A欄填寫A</t>
+  </si>
+  <si>
+    <t>物質重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入重量欄位，如果是A欄填寫A:</t>
+  </si>
+  <si>
+    <t>分析範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得分析物質列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入分析元素列表路徑</t>
+  </si>
+  <si>
+    <t>取得分析物質名稱對照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入物質轉換表路徑</t>
+  </si>
+  <si>
+    <t>請輸入資料範圍，如果數值最後一行為16，請填16:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增工作表欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+  </si>
+  <si>
+    <t>部件料號</t>
+  </si>
+  <si>
+    <t>物質含量百分比</t>
+  </si>
+  <si>
     <t>請輸入分析檔案路徑:</t>
-  </si>
-  <si>
-    <t>查無所輸入檔案，請重新輸入</t>
-  </si>
-  <si>
-    <t>分析資料檔案目標工作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入目的工作表序位，例如:第一張工作表請填1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入正整數！</t>
-  </si>
-  <si>
-    <t>部件重量欄位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入總和欄位，如果是A欄填寫A:</t>
-  </si>
-  <si>
-    <t>化學文摘號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入存放元素欄位，如果是A欄填寫A</t>
-  </si>
-  <si>
-    <t>物質重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入重量欄位，如果是A欄填寫A:</t>
-  </si>
-  <si>
-    <t>分析範圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得分析物質列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入分析元素列表路徑</t>
-  </si>
-  <si>
-    <t>取得分析物質名稱對照表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入物質轉換表路徑</t>
-  </si>
-  <si>
-    <t>請輸入資料範圍，如果數值最後一行為16，請填16:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增工作表欄位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-  </si>
-  <si>
-    <t>部件料號</t>
-  </si>
-  <si>
-    <t>物質含量百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入欲分析工作表的序位，例如:第一張工作表請填1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入部件/成品(Article)重量欄位，如果是A欄填寫A:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入CAS Number欄位，如果是A欄填寫A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入資料範圍，如果數值最後一列為第16列，請填16:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入物質重量欄位，如果是A欄填寫A:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入欲分析物質/禁限用物質列表檔案路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入物質名稱對照表檔案路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,14 +484,14 @@
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -481,111 +510,132 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -593,4 +643,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{44ccf059-af5d-4b92-932d-3690a1231c55}" enabled="1" method="Standard" siteId="{cb3d8dcd-2ed2-4bad-89a5-e0a7195fb643}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>